--- a/Standard_Library_TestCase_ChangeUtil.xlsx
+++ b/Standard_Library_TestCase_ChangeUtil.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="317">
   <si>
     <t>Test Environment</t>
   </si>
@@ -1284,6 +1284,177 @@
   <si>
     <t>ChangeUtil</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>createWTChangeIssue(String prType,String number, String name,String description)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of prType is Issue type,number is not empty and is not exist in windchill,name is not empt,description is not empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeIssue("wt.change2.WTChangeIssue", "issue-number001", "issue-name001", "create WTChangeIssue"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of prType is Issue type,number is  empty ,name is not empty,description is not empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeIssue("wt.change2.WTChangeIssue", "", "issue-name001", "create WTChangeIssue"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeIssue("wt.change2", "issue-number002", "issue-name001", "create WTChangeIssue"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of prType is not Issue type,number is  not exist in windchill,name is not empty,description is not empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input the value of prType is Issue type,number is not empty and is not exist in windchill,name is not emptyl,description is empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input :all value are all null</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>WTChangeIssue</t>
+  </si>
+  <si>
+    <t>wt.change2.WTChangeIssue Object</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeIssue("wt.change2.WTChangeIssue", "issue-number002", "issue-name001", ""));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeIssue(null, null, null, null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWTChangeRequest2(String ecrType,String number, String name,String description)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of ecrType is ecr type,number is not empty and is not exist in windchill,name is not empt,description is not empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input the value of ecrType is ecr type,number is  empty ,name is not empty,description is not empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input the value of ecrType is not ecr type,number is  not exist in windchill,name is not empty,description is not empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input the value of ecrType is ecr type,number is not empty and is not exist in windchill,name is not emptyl,description is empty</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>wt.change2.WTChangeRequest2 Object</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeRequest2("wt.change2.WTChangeRequest2", "request-number001", "request-name001", "create WTChangeRequest2"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeRequest2("wt.change2.WTChangeRequest2", "", "request-name001", "create WTChangeRequest2"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeRequest2("wt.change2", "request-number002", "request-name001", "create WTChangeRequest2"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeRequest2("wt.change2.WTChangeRequest2", "request-number002", "request-name001", ""));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeRequest2(null, null, null, null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWTChangeActivity2(String ecaType,String number, String name,
+      String description,WTChangeOrder2 changeOrder)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of ecaType is ECA type,number is not empty and is not exist in windchill,name is not empty,description is not empty,changeOrder is exist in windChill</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeActivity2("wt.change2.WTChangeActivity2", "activity-number002", "activity-name002", "create WTChangeActivity2",getECNByNumber("00068")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of ecaType is ECA type,number is  exist in windChill ,name is not empty,description is not empty,changeOrder is exist in windChill</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input the value of ecaType is ECA type,number is  empty,name is not empty,description is not empty,changeOrder is exist in windChill</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeActivity2("wt.change2.WTChangeActivity2", "", "activity-name002", "create WTChangeActivity2",getECNByNumber("00068")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of ecaType is not ECA type,number is not empty and is not exist in windchill,name is not empty,description is not empty,changeOrder is exist in windChill</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeActivity2("wt.change2", "activity-number002", "activity-name002", "create WTChangeActivity2",getECNByNumber("00068")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of ecaType is ECA type,number is not empty and is not exist in windchill,name is exist in windChill,description is not empty,changeOrder is exist in windChill</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeActivity2("wt.change2.WTChangeActivity2", "activity-number002", "activity-name002", "create WTChangeActivity2",getECNByNumber("asd")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input the value of ecaType is ECA type,number is not empty and is not exist in windchill,name is not empty,description is not empty,changeOrder is not exist in windChill</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeActivity2("wt.change2.WTChangeActivity2", "activity-number002", "", "create WTChangeActivity2",getECNByNumber("00068")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:input values are all null</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(createWTChangeActivity2(null, null, null, null,null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTChangeActivity2</t>
+  </si>
+  <si>
+    <t>WTChangeActivity2</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt.change2.WTChangeActivity2 Object</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1664,7 +1835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1992,6 +2163,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2125,7 +2335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -2338,6 +2548,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2774,14 +3007,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="4"/>
@@ -2835,10 +3068,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6"/>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2928,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3800,1641 +4033,1821 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="144">
+    <row r="39" spans="2:11" ht="108">
       <c r="B39" s="55">
         <v>6</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="90">
+      <c r="B40" s="55"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="72"/>
+      <c r="F40" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="90">
+      <c r="B41" s="55"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="72"/>
+      <c r="F41" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="90">
+      <c r="B42" s="55"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="F42" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="54">
+      <c r="B43" s="55"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="72"/>
+      <c r="F43" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H43" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="75"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="126">
+      <c r="B44" s="55">
+        <v>7</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="I44" s="75"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="108">
+      <c r="B45" s="55"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="I45" s="75"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="108">
+      <c r="B46" s="55"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G46" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="75"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="108">
+      <c r="B47" s="55"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="72"/>
+      <c r="F47" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="I47" s="75"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="77" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="54">
+      <c r="B48" s="55"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="I48" s="75"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="144">
+      <c r="B49" s="55">
+        <v>8</v>
+      </c>
+      <c r="C49" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D49" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="33" t="s">
+      <c r="E49" s="64"/>
+      <c r="F49" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G49" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H49" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="67" t="s">
+      <c r="I49" s="66"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="144">
-      <c r="B40" s="55"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="30" t="s">
+    <row r="50" spans="2:11" ht="144">
+      <c r="B50" s="55"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="33" t="s">
+      <c r="E50" s="64"/>
+      <c r="F50" s="33" t="s">
         <v>61</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="144">
-      <c r="B41" s="55"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="144">
-      <c r="B42" s="55"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="126">
-      <c r="B43" s="55"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="108">
-      <c r="B44" s="55"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="144">
-      <c r="B45" s="55"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="54">
-      <c r="B46" s="55"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="57" thickBot="1">
-      <c r="B47" s="55">
-        <v>7</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="59"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="54">
-      <c r="B48" s="31"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="54">
-      <c r="B49" s="31"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="54">
-      <c r="B50" s="31"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="59"/>
-      <c r="J50" s="49"/>
+      <c r="H50" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="66"/>
+      <c r="J50" s="68"/>
       <c r="K50" s="67" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="144">
-      <c r="B51" s="31">
-        <v>8</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>86</v>
-      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="58"/>
+        <v>51</v>
+      </c>
+      <c r="E51" s="64"/>
       <c r="F51" s="33" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I51" s="59"/>
-      <c r="J51" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="I51" s="66"/>
+      <c r="J51" s="68"/>
       <c r="K51" s="67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="144.75" thickBot="1">
-      <c r="B52" s="31"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="58"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="144">
+      <c r="B52" s="55"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="32"/>
       <c r="F52" s="33" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="59"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="144">
-      <c r="B53" s="31"/>
-      <c r="C53" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="35"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="126">
+      <c r="B53" s="55"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="E53" s="58"/>
       <c r="F53" s="33" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="126">
-      <c r="B54" s="31"/>
-      <c r="C54" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="59"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="108">
+      <c r="B54" s="55"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="E54" s="58"/>
       <c r="F54" s="33" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="47" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="59"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="67" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="144">
-      <c r="B55" s="31">
-        <v>9</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>99</v>
-      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="33" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>104</v>
+        <v>58</v>
+      </c>
+      <c r="H55" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="I55" s="59"/>
       <c r="J55" s="49"/>
       <c r="K55" s="67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="144.75" thickBot="1">
-      <c r="B56" s="31"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="54">
+      <c r="B56" s="55"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="E56" s="58"/>
       <c r="F56" s="33" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="69" t="s">
-        <v>94</v>
+        <v>58</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="I56" s="59"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="144">
-      <c r="B57" s="62"/>
-      <c r="C57" s="36"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="126">
+      <c r="B57" s="55">
+        <v>9</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>299</v>
+      </c>
       <c r="D57" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="E57" s="58"/>
       <c r="F57" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="47" t="s">
-        <v>102</v>
+        <v>300</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="I57" s="59"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="77" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="126">
-      <c r="B58" s="62"/>
-      <c r="C58" s="36"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="32"/>
+        <v>22</v>
+      </c>
+      <c r="E58" s="58"/>
       <c r="F58" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="35"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="57" thickBot="1">
-      <c r="B59" s="62">
-        <v>10</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>72</v>
+        <v>303</v>
+      </c>
+      <c r="G58" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H58" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="I58" s="59"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="77" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="126">
+      <c r="B59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="E59" s="58"/>
       <c r="F59" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="69" t="s">
-        <v>111</v>
+        <v>302</v>
+      </c>
+      <c r="G59" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" s="74" t="s">
+        <v>315</v>
       </c>
       <c r="I59" s="59"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="54">
-      <c r="B60" s="62"/>
-      <c r="C60" s="36"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="126">
+      <c r="B60" s="55"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="32"/>
+        <v>24</v>
+      </c>
+      <c r="E60" s="58"/>
       <c r="F60" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="54">
-      <c r="B61" s="62"/>
-      <c r="C61" s="36"/>
+        <v>305</v>
+      </c>
+      <c r="G60" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H60" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="I60" s="59"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="77" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="126">
+      <c r="B61" s="55"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="E61" s="58"/>
       <c r="F61" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="35"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="54">
-      <c r="B62" s="62"/>
+        <v>307</v>
+      </c>
+      <c r="G61" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="I61" s="59"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="126">
+      <c r="B62" s="55"/>
       <c r="C62" s="57"/>
       <c r="D62" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E62" s="58"/>
       <c r="F62" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H62" s="65" t="s">
-        <v>80</v>
+        <v>309</v>
+      </c>
+      <c r="G62" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H62" s="74" t="s">
+        <v>316</v>
       </c>
       <c r="I62" s="59"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="75.75" thickBot="1">
-      <c r="B63" s="62">
-        <v>11</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>72</v>
+      <c r="J62" s="76"/>
+      <c r="K62" s="77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="54">
+      <c r="B63" s="55"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="E63" s="58"/>
       <c r="F63" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="73"/>
+      <c r="H63" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="I63" s="59"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="57" thickBot="1">
+      <c r="B64" s="55">
+        <v>10</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="58"/>
+      <c r="F64" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="I63" s="59"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="54">
-      <c r="B64" s="31"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33" t="s">
-        <v>77</v>
-      </c>
       <c r="G64" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="47" t="s">
-        <v>115</v>
+        <v>58</v>
+      </c>
+      <c r="H64" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" s="59"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="61" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="54">
       <c r="B65" s="31"/>
       <c r="C65" s="36"/>
       <c r="D65" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I65" s="35"/>
       <c r="J65" s="46"/>
       <c r="K65" s="47" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="54">
       <c r="B66" s="31"/>
-      <c r="C66" s="57"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="35"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="54">
+      <c r="B67" s="31"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="I66" s="59"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="75.75" thickBot="1">
-      <c r="B67" s="62">
-        <v>12</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="E67" s="58"/>
       <c r="F67" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H67" s="69" t="s">
-        <v>126</v>
+        <v>58</v>
+      </c>
+      <c r="H67" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="I67" s="59"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="54">
-      <c r="B68" s="62"/>
-      <c r="C68" s="36"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="144">
+      <c r="B68" s="31">
+        <v>10</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>86</v>
+      </c>
       <c r="D68" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="58"/>
+      <c r="F68" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="59"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="144.75" thickBot="1">
+      <c r="B69" s="31"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="35"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="54">
-      <c r="B69" s="62"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="30" t="s">
+      <c r="E69" s="58"/>
+      <c r="F69" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="I69" s="59"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="144">
+      <c r="B70" s="31"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="54">
-      <c r="B70" s="62"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="58"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" s="59"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="162.75" thickBot="1">
-      <c r="B71" s="62">
-        <v>13</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71" s="58"/>
+        <v>92</v>
+      </c>
+      <c r="H70" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="35"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="126">
+      <c r="B71" s="31"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="32"/>
       <c r="F71" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="35"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="144">
+      <c r="B72" s="31">
+        <v>9</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="58"/>
+      <c r="F72" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="G71" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="162">
-      <c r="B72" s="62"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="30" t="s">
+      <c r="G72" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="59"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="144.75" thickBot="1">
+      <c r="B73" s="31"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33" t="s">
+      <c r="E73" s="58"/>
+      <c r="F73" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G72" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H72" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I72" s="35"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" ht="144">
-      <c r="B73" s="62"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="30" t="s">
+      <c r="G73" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="59"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="144">
+      <c r="B74" s="62"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I73" s="35"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="162.75" thickBot="1">
-      <c r="B74" s="62">
-        <v>14</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="58"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="33" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="H74" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="I74" s="59"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="162">
+        <v>94</v>
+      </c>
+      <c r="I74" s="35"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="126">
       <c r="B75" s="62"/>
       <c r="C75" s="36"/>
       <c r="D75" s="30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="33" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="I75" s="35"/>
       <c r="J75" s="46"/>
       <c r="K75" s="47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="144">
-      <c r="B76" s="62"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="32"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="57" thickBot="1">
+      <c r="B76" s="62">
+        <v>10</v>
+      </c>
+      <c r="C76" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="58"/>
       <c r="F76" s="33" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="H76" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="57" thickBot="1">
-      <c r="B77" s="62">
-        <v>15</v>
-      </c>
-      <c r="C77" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="58"/>
+        <v>111</v>
+      </c>
+      <c r="I76" s="59"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="54">
+      <c r="B77" s="62"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="32"/>
       <c r="F77" s="33" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="I77" s="59"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="61" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="H77" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="35"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="47" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="54">
       <c r="B78" s="62"/>
       <c r="C78" s="36"/>
       <c r="D78" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="33" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" s="69" t="s">
-        <v>80</v>
+        <v>106</v>
+      </c>
+      <c r="H78" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="I78" s="35"/>
       <c r="J78" s="46"/>
       <c r="K78" s="47" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="54">
       <c r="B79" s="62"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="E79" s="58"/>
       <c r="F79" s="33" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="I79" s="35"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="47" t="s">
-        <v>151</v>
+      <c r="I79" s="59"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="67" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="75.75" thickBot="1">
       <c r="B80" s="62">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="D80" s="57" t="s">
         <v>72</v>
       </c>
       <c r="E80" s="58"/>
       <c r="F80" s="33" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H80" s="69" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I80" s="59"/>
       <c r="J80" s="60"/>
       <c r="K80" s="61" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="54">
-      <c r="B81" s="62"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="36"/>
       <c r="D81" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="33" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H81" s="69" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="I81" s="35"/>
       <c r="J81" s="46"/>
       <c r="K81" s="47" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="54">
-      <c r="B82" s="62"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="36"/>
       <c r="D82" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="33" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H82" s="69" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="I82" s="35"/>
       <c r="J82" s="46"/>
       <c r="K82" s="47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="162.75" thickBot="1">
-      <c r="B83" s="62">
-        <v>17</v>
-      </c>
-      <c r="C83" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="57" t="s">
-        <v>72</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="54">
+      <c r="B83" s="31"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="E83" s="58"/>
       <c r="F83" s="33" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H83" s="69" t="s">
-        <v>165</v>
+        <v>113</v>
+      </c>
+      <c r="H83" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="I83" s="59"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="162">
-      <c r="B84" s="62"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" s="32"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="75.75" thickBot="1">
+      <c r="B84" s="62">
+        <v>12</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="58"/>
       <c r="F84" s="33" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="H84" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I84" s="35"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="126">
+        <v>126</v>
+      </c>
+      <c r="I84" s="59"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="54">
       <c r="B85" s="62"/>
       <c r="C85" s="36"/>
       <c r="D85" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="33" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H85" s="69" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="H85" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="I85" s="35"/>
       <c r="J85" s="46"/>
       <c r="K85" s="47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="75.75" thickBot="1">
-      <c r="B86" s="62">
-        <v>18</v>
-      </c>
-      <c r="C86" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="58"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="54">
+      <c r="B86" s="62"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="32"/>
       <c r="F86" s="33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H86" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="I86" s="59"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="61" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="H86" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="35"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="47" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="54">
       <c r="B87" s="62"/>
-      <c r="C87" s="36"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="58"/>
+      <c r="F87" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87" s="59"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="162.75" thickBot="1">
+      <c r="B88" s="62">
+        <v>13</v>
+      </c>
+      <c r="C88" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="58"/>
+      <c r="F88" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H88" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="162">
+      <c r="B89" s="62"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="I87" s="35"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="47" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="54">
-      <c r="B88" s="62"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H88" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="I88" s="35"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="75.75" thickBot="1">
-      <c r="B89" s="62">
-        <v>19</v>
-      </c>
-      <c r="C89" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="58"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="33" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="H89" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="I89" s="59"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="56.25">
+        <v>128</v>
+      </c>
+      <c r="I89" s="35"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="144">
       <c r="B90" s="62"/>
       <c r="C90" s="36"/>
       <c r="D90" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="33" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="H90" s="69" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="I90" s="35"/>
       <c r="J90" s="46"/>
       <c r="K90" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="56.25">
-      <c r="B91" s="62"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" s="32"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="162.75" thickBot="1">
+      <c r="B91" s="62">
+        <v>14</v>
+      </c>
+      <c r="C91" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="58"/>
       <c r="F91" s="33" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H91" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="I91" s="35"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="75.75" thickBot="1">
-      <c r="B92" s="62">
-        <v>20</v>
-      </c>
-      <c r="C92" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="58"/>
+        <v>144</v>
+      </c>
+      <c r="I91" s="59"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="162">
+      <c r="B92" s="62"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="32"/>
       <c r="F92" s="33" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="H92" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" ht="56.25">
+        <v>128</v>
+      </c>
+      <c r="I92" s="35"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="144">
       <c r="B93" s="62"/>
       <c r="C93" s="36"/>
       <c r="D93" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="33" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H93" s="69" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="I93" s="35"/>
       <c r="J93" s="46"/>
       <c r="K93" s="47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="56.25">
-      <c r="B94" s="62"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="32"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="57" thickBot="1">
+      <c r="B94" s="62">
+        <v>15</v>
+      </c>
+      <c r="C94" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="58"/>
       <c r="F94" s="33" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="H94" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="I94" s="35"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" ht="108.75" thickBot="1">
-      <c r="B95" s="62">
-        <v>21</v>
-      </c>
-      <c r="C95" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="58"/>
+        <v>152</v>
+      </c>
+      <c r="I94" s="59"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="54">
+      <c r="B95" s="62"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="32"/>
       <c r="F95" s="33" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" s="59"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="108">
+        <v>56</v>
+      </c>
+      <c r="H95" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" s="35"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="54">
       <c r="B96" s="62"/>
       <c r="C96" s="36"/>
       <c r="D96" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" s="69" t="b">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="H96" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="I96" s="35"/>
       <c r="J96" s="46"/>
       <c r="K96" s="47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" ht="54">
-      <c r="B97" s="62"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E97" s="32"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="75.75" thickBot="1">
+      <c r="B97" s="62">
+        <v>16</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" s="58"/>
       <c r="F97" s="33" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H97" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="35"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" ht="108.75" thickBot="1">
-      <c r="B98" s="62">
-        <v>22</v>
-      </c>
-      <c r="C98" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="D98" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" s="58"/>
+        <v>124</v>
+      </c>
+      <c r="H97" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="59"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="54">
+      <c r="B98" s="62"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" s="32"/>
       <c r="F98" s="33" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G98" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H98" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" s="59"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" ht="108">
+        <v>124</v>
+      </c>
+      <c r="H98" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="35"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="54">
       <c r="B99" s="62"/>
       <c r="C99" s="36"/>
       <c r="D99" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="33" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="G99" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" s="69" t="b">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="H99" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="I99" s="35"/>
       <c r="J99" s="46"/>
       <c r="K99" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="162.75" thickBot="1">
+      <c r="B100" s="62">
+        <v>17</v>
+      </c>
+      <c r="C100" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="58"/>
+      <c r="F100" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H100" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="I100" s="59"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="162">
+      <c r="B101" s="62"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G101" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H101" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="I101" s="35"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="126">
+      <c r="B102" s="62"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H102" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="I102" s="35"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="75.75" thickBot="1">
+      <c r="B103" s="62">
+        <v>18</v>
+      </c>
+      <c r="C103" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="58"/>
+      <c r="F103" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="I103" s="59"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="54">
+      <c r="B104" s="62"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="32"/>
+      <c r="F104" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104" s="35"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="54">
+      <c r="B105" s="62"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="32"/>
+      <c r="F105" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H105" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105" s="35"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="75.75" thickBot="1">
+      <c r="B106" s="62">
+        <v>19</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" s="58"/>
+      <c r="F106" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H106" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="I106" s="59"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="56.25">
+      <c r="B107" s="62"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="32"/>
+      <c r="F107" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H107" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I107" s="35"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="56.25">
+      <c r="B108" s="62"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H108" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I108" s="35"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="75.75" thickBot="1">
+      <c r="B109" s="62">
+        <v>20</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" s="58"/>
+      <c r="F109" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H109" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="I109" s="59"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="56.25">
+      <c r="B110" s="62"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H110" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I110" s="35"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="56.25">
+      <c r="B111" s="62"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" s="32"/>
+      <c r="F111" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H111" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I111" s="35"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="108.75" thickBot="1">
+      <c r="B112" s="62">
+        <v>21</v>
+      </c>
+      <c r="C112" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" s="58"/>
+      <c r="F112" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" s="59"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" ht="108">
+      <c r="B113" s="62"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="32"/>
+      <c r="F113" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G113" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" s="35"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" ht="54">
+      <c r="B114" s="62"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="32"/>
+      <c r="F114" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" s="35"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" ht="108.75" thickBot="1">
+      <c r="B115" s="62">
+        <v>22</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" s="58"/>
+      <c r="F115" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G115" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="59"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" ht="108">
+      <c r="B116" s="62"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" s="32"/>
+      <c r="F116" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="35"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="47" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="54">
-      <c r="B100" s="62"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="30" t="s">
+    <row r="117" spans="2:11" ht="54">
+      <c r="B117" s="62"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="32"/>
-      <c r="F100" s="33" t="s">
+      <c r="E117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G117" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H100" s="69" t="b">
+      <c r="H117" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="I100" s="35"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="47" t="s">
+      <c r="I117" s="35"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="47" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" ht="18.75">
-      <c r="B101" s="38"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="41"/>
-    </row>
-    <row r="102" spans="2:11" ht="18.75">
-      <c r="B102" s="38"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="41"/>
-    </row>
-    <row r="103" spans="2:11" ht="18.75">
-      <c r="B103" s="38"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="41"/>
-    </row>
-    <row r="104" spans="2:11" ht="18.75">
-      <c r="B104" s="38"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="41"/>
-    </row>
-    <row r="105" spans="2:11" ht="18.75">
-      <c r="B105" s="38"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="41"/>
-    </row>
-    <row r="106" spans="2:11" ht="18.75">
-      <c r="B106" s="38"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="41"/>
-    </row>
-    <row r="107" spans="2:11" ht="18.75">
-      <c r="B107" s="38"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="41"/>
-    </row>
-    <row r="108" spans="2:11" ht="18.75">
-      <c r="B108" s="70"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="41"/>
-    </row>
-    <row r="109" spans="2:11" ht="18.75">
-      <c r="B109" s="38"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="41"/>
-    </row>
-    <row r="110" spans="2:11" ht="18.75">
-      <c r="B110" s="38"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="41"/>
-    </row>
-    <row r="111" spans="2:11" ht="18.75">
-      <c r="B111" s="38"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="41"/>
-    </row>
-    <row r="112" spans="2:11" ht="18.75">
-      <c r="B112" s="70"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="41"/>
-    </row>
-    <row r="113" spans="2:11" ht="18.75">
-      <c r="B113" s="38"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="41"/>
-    </row>
-    <row r="114" spans="2:11" ht="18.75">
-      <c r="B114" s="38"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="41"/>
-    </row>
-    <row r="115" spans="2:11" ht="18.75">
-      <c r="B115" s="38"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="40"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="41"/>
-    </row>
-    <row r="116" spans="2:11" ht="18.75">
-      <c r="B116" s="70"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="41"/>
-    </row>
-    <row r="117" spans="2:11" ht="18.75">
-      <c r="B117" s="38"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="41"/>
     </row>
     <row r="118" spans="2:11" ht="18.75">
       <c r="B118" s="38"/>
@@ -5461,10 +5874,10 @@
       <c r="K119" s="41"/>
     </row>
     <row r="120" spans="2:11" ht="18.75">
-      <c r="B120" s="70"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="39"/>
       <c r="D120" s="40"/>
-      <c r="E120" s="38"/>
+      <c r="E120" s="41"/>
       <c r="F120" s="42"/>
       <c r="G120" s="42"/>
       <c r="H120" s="45"/>
@@ -5497,10 +5910,10 @@
       <c r="K122" s="41"/>
     </row>
     <row r="123" spans="2:11" ht="18.75">
-      <c r="B123" s="70"/>
+      <c r="B123" s="38"/>
       <c r="C123" s="39"/>
       <c r="D123" s="40"/>
-      <c r="E123" s="38"/>
+      <c r="E123" s="41"/>
       <c r="F123" s="42"/>
       <c r="G123" s="42"/>
       <c r="H123" s="45"/>
@@ -5508,119 +5921,119 @@
       <c r="J123" s="44"/>
       <c r="K123" s="41"/>
     </row>
-    <row r="124" spans="2:11" ht="18">
+    <row r="124" spans="2:11" ht="18.75">
       <c r="B124" s="38"/>
       <c r="C124" s="39"/>
       <c r="D124" s="40"/>
       <c r="E124" s="41"/>
       <c r="F124" s="42"/>
       <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
+      <c r="H124" s="45"/>
       <c r="I124" s="43"/>
       <c r="J124" s="44"/>
       <c r="K124" s="41"/>
     </row>
-    <row r="125" spans="2:11" ht="18">
-      <c r="B125" s="38"/>
+    <row r="125" spans="2:11" ht="18.75">
+      <c r="B125" s="70"/>
       <c r="C125" s="39"/>
       <c r="D125" s="40"/>
-      <c r="E125" s="41"/>
+      <c r="E125" s="38"/>
       <c r="F125" s="42"/>
       <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
+      <c r="H125" s="45"/>
       <c r="I125" s="43"/>
       <c r="J125" s="44"/>
       <c r="K125" s="41"/>
     </row>
-    <row r="126" spans="2:11" ht="18">
+    <row r="126" spans="2:11" ht="18.75">
       <c r="B126" s="38"/>
       <c r="C126" s="39"/>
       <c r="D126" s="40"/>
       <c r="E126" s="41"/>
       <c r="F126" s="42"/>
       <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
+      <c r="H126" s="45"/>
       <c r="I126" s="43"/>
       <c r="J126" s="44"/>
       <c r="K126" s="41"/>
     </row>
-    <row r="127" spans="2:11" ht="18">
+    <row r="127" spans="2:11" ht="18.75">
       <c r="B127" s="38"/>
       <c r="C127" s="39"/>
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
       <c r="F127" s="42"/>
       <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
+      <c r="H127" s="45"/>
       <c r="I127" s="43"/>
       <c r="J127" s="44"/>
       <c r="K127" s="41"/>
     </row>
-    <row r="128" spans="2:11" ht="18">
+    <row r="128" spans="2:11" ht="18.75">
       <c r="B128" s="38"/>
       <c r="C128" s="39"/>
       <c r="D128" s="40"/>
       <c r="E128" s="41"/>
       <c r="F128" s="42"/>
       <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
+      <c r="H128" s="45"/>
       <c r="I128" s="43"/>
       <c r="J128" s="44"/>
       <c r="K128" s="41"/>
     </row>
-    <row r="129" spans="2:11" ht="18">
-      <c r="B129" s="38"/>
+    <row r="129" spans="2:11" ht="18.75">
+      <c r="B129" s="70"/>
       <c r="C129" s="39"/>
       <c r="D129" s="40"/>
-      <c r="E129" s="41"/>
+      <c r="E129" s="38"/>
       <c r="F129" s="42"/>
       <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
+      <c r="H129" s="45"/>
       <c r="I129" s="43"/>
       <c r="J129" s="44"/>
       <c r="K129" s="41"/>
     </row>
-    <row r="130" spans="2:11" ht="18">
+    <row r="130" spans="2:11" ht="18.75">
       <c r="B130" s="38"/>
       <c r="C130" s="39"/>
       <c r="D130" s="40"/>
       <c r="E130" s="41"/>
       <c r="F130" s="42"/>
       <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
+      <c r="H130" s="45"/>
       <c r="I130" s="43"/>
       <c r="J130" s="44"/>
       <c r="K130" s="41"/>
     </row>
-    <row r="131" spans="2:11" ht="18">
+    <row r="131" spans="2:11" ht="18.75">
       <c r="B131" s="38"/>
       <c r="C131" s="39"/>
       <c r="D131" s="40"/>
       <c r="E131" s="41"/>
       <c r="F131" s="42"/>
       <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
+      <c r="H131" s="45"/>
       <c r="I131" s="43"/>
       <c r="J131" s="44"/>
       <c r="K131" s="41"/>
     </row>
-    <row r="132" spans="2:11" ht="18">
+    <row r="132" spans="2:11" ht="18.75">
       <c r="B132" s="38"/>
       <c r="C132" s="39"/>
       <c r="D132" s="40"/>
       <c r="E132" s="41"/>
       <c r="F132" s="42"/>
       <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
+      <c r="H132" s="45"/>
       <c r="I132" s="43"/>
       <c r="J132" s="44"/>
       <c r="K132" s="41"/>
     </row>
     <row r="133" spans="2:11" ht="18.75">
-      <c r="B133" s="38"/>
+      <c r="B133" s="70"/>
       <c r="C133" s="39"/>
       <c r="D133" s="40"/>
-      <c r="E133" s="41"/>
+      <c r="E133" s="38"/>
       <c r="F133" s="42"/>
       <c r="G133" s="42"/>
       <c r="H133" s="45"/>
@@ -5652,62 +6065,62 @@
       <c r="J135" s="44"/>
       <c r="K135" s="41"/>
     </row>
-    <row r="136" spans="2:11" ht="18">
+    <row r="136" spans="2:11" ht="18.75">
       <c r="B136" s="38"/>
       <c r="C136" s="39"/>
       <c r="D136" s="40"/>
       <c r="E136" s="41"/>
       <c r="F136" s="42"/>
       <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
+      <c r="H136" s="45"/>
       <c r="I136" s="43"/>
       <c r="J136" s="44"/>
       <c r="K136" s="41"/>
     </row>
-    <row r="137" spans="2:11" ht="18">
-      <c r="B137" s="38"/>
+    <row r="137" spans="2:11" ht="18.75">
+      <c r="B137" s="70"/>
       <c r="C137" s="39"/>
       <c r="D137" s="40"/>
-      <c r="E137" s="41"/>
+      <c r="E137" s="38"/>
       <c r="F137" s="42"/>
       <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
+      <c r="H137" s="45"/>
       <c r="I137" s="43"/>
       <c r="J137" s="44"/>
       <c r="K137" s="41"/>
     </row>
-    <row r="138" spans="2:11" ht="18">
+    <row r="138" spans="2:11" ht="18.75">
       <c r="B138" s="38"/>
       <c r="C138" s="39"/>
       <c r="D138" s="40"/>
       <c r="E138" s="41"/>
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
+      <c r="H138" s="45"/>
       <c r="I138" s="43"/>
       <c r="J138" s="44"/>
       <c r="K138" s="41"/>
     </row>
-    <row r="139" spans="2:11" ht="18">
+    <row r="139" spans="2:11" ht="18.75">
       <c r="B139" s="38"/>
       <c r="C139" s="39"/>
       <c r="D139" s="40"/>
       <c r="E139" s="41"/>
       <c r="F139" s="42"/>
       <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
+      <c r="H139" s="45"/>
       <c r="I139" s="43"/>
       <c r="J139" s="44"/>
       <c r="K139" s="41"/>
     </row>
-    <row r="140" spans="2:11" ht="18">
-      <c r="B140" s="38"/>
+    <row r="140" spans="2:11" ht="18.75">
+      <c r="B140" s="70"/>
       <c r="C140" s="39"/>
       <c r="D140" s="40"/>
-      <c r="E140" s="41"/>
+      <c r="E140" s="38"/>
       <c r="F140" s="42"/>
       <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
+      <c r="H140" s="45"/>
       <c r="I140" s="43"/>
       <c r="J140" s="44"/>
       <c r="K140" s="41"/>
@@ -5760,38 +6173,38 @@
       <c r="J144" s="44"/>
       <c r="K144" s="41"/>
     </row>
-    <row r="145" spans="2:11" ht="18.75">
+    <row r="145" spans="2:11" ht="18">
       <c r="B145" s="38"/>
       <c r="C145" s="39"/>
       <c r="D145" s="40"/>
       <c r="E145" s="41"/>
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
-      <c r="H145" s="45"/>
+      <c r="H145" s="42"/>
       <c r="I145" s="43"/>
       <c r="J145" s="44"/>
       <c r="K145" s="41"/>
     </row>
-    <row r="146" spans="2:11" ht="18.75">
+    <row r="146" spans="2:11" ht="18">
       <c r="B146" s="38"/>
       <c r="C146" s="39"/>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
       <c r="F146" s="42"/>
       <c r="G146" s="42"/>
-      <c r="H146" s="45"/>
+      <c r="H146" s="42"/>
       <c r="I146" s="43"/>
       <c r="J146" s="44"/>
       <c r="K146" s="41"/>
     </row>
-    <row r="147" spans="2:11" ht="18.75">
+    <row r="147" spans="2:11" ht="18">
       <c r="B147" s="38"/>
       <c r="C147" s="39"/>
       <c r="D147" s="40"/>
       <c r="E147" s="41"/>
       <c r="F147" s="42"/>
       <c r="G147" s="42"/>
-      <c r="H147" s="45"/>
+      <c r="H147" s="42"/>
       <c r="I147" s="43"/>
       <c r="J147" s="44"/>
       <c r="K147" s="41"/>
@@ -5808,38 +6221,38 @@
       <c r="J148" s="44"/>
       <c r="K148" s="41"/>
     </row>
-    <row r="149" spans="2:11" ht="18.75">
+    <row r="149" spans="2:11" ht="18">
       <c r="B149" s="38"/>
       <c r="C149" s="39"/>
       <c r="D149" s="40"/>
       <c r="E149" s="41"/>
       <c r="F149" s="42"/>
       <c r="G149" s="42"/>
-      <c r="H149" s="45"/>
+      <c r="H149" s="42"/>
       <c r="I149" s="43"/>
       <c r="J149" s="44"/>
       <c r="K149" s="41"/>
     </row>
-    <row r="150" spans="2:11" ht="18">
+    <row r="150" spans="2:11" ht="18.75">
       <c r="B150" s="38"/>
       <c r="C150" s="39"/>
       <c r="D150" s="40"/>
       <c r="E150" s="41"/>
       <c r="F150" s="42"/>
       <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
+      <c r="H150" s="45"/>
       <c r="I150" s="43"/>
       <c r="J150" s="44"/>
       <c r="K150" s="41"/>
     </row>
-    <row r="151" spans="2:11" ht="18">
+    <row r="151" spans="2:11" ht="18.75">
       <c r="B151" s="38"/>
       <c r="C151" s="39"/>
       <c r="D151" s="40"/>
       <c r="E151" s="41"/>
       <c r="F151" s="42"/>
       <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
+      <c r="H151" s="45"/>
       <c r="I151" s="43"/>
       <c r="J151" s="44"/>
       <c r="K151" s="41"/>
@@ -5868,14 +6281,14 @@
       <c r="J153" s="44"/>
       <c r="K153" s="41"/>
     </row>
-    <row r="154" spans="2:11" ht="18.75">
+    <row r="154" spans="2:11" ht="18">
       <c r="B154" s="38"/>
       <c r="C154" s="39"/>
       <c r="D154" s="40"/>
       <c r="E154" s="41"/>
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
-      <c r="H154" s="45"/>
+      <c r="H154" s="42"/>
       <c r="I154" s="43"/>
       <c r="J154" s="44"/>
       <c r="K154" s="41"/>
@@ -5892,14 +6305,14 @@
       <c r="J155" s="44"/>
       <c r="K155" s="41"/>
     </row>
-    <row r="156" spans="2:11" ht="18.75">
+    <row r="156" spans="2:11" ht="18">
       <c r="B156" s="38"/>
       <c r="C156" s="39"/>
       <c r="D156" s="40"/>
       <c r="E156" s="41"/>
       <c r="F156" s="42"/>
       <c r="G156" s="42"/>
-      <c r="H156" s="45"/>
+      <c r="H156" s="42"/>
       <c r="I156" s="43"/>
       <c r="J156" s="44"/>
       <c r="K156" s="41"/>
@@ -5916,14 +6329,14 @@
       <c r="J157" s="44"/>
       <c r="K157" s="41"/>
     </row>
-    <row r="158" spans="2:11" ht="18.75">
+    <row r="158" spans="2:11" ht="18">
       <c r="B158" s="38"/>
       <c r="C158" s="39"/>
       <c r="D158" s="40"/>
       <c r="E158" s="41"/>
       <c r="F158" s="42"/>
       <c r="G158" s="42"/>
-      <c r="H158" s="45"/>
+      <c r="H158" s="42"/>
       <c r="I158" s="43"/>
       <c r="J158" s="44"/>
       <c r="K158" s="41"/>
@@ -5964,14 +6377,14 @@
       <c r="J161" s="44"/>
       <c r="K161" s="41"/>
     </row>
-    <row r="162" spans="2:11" ht="18">
+    <row r="162" spans="2:11" ht="18.75">
       <c r="B162" s="38"/>
       <c r="C162" s="39"/>
       <c r="D162" s="40"/>
       <c r="E162" s="41"/>
       <c r="F162" s="42"/>
       <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
+      <c r="H162" s="45"/>
       <c r="I162" s="43"/>
       <c r="J162" s="44"/>
       <c r="K162" s="41"/>
@@ -6000,11 +6413,215 @@
       <c r="J164" s="44"/>
       <c r="K164" s="41"/>
     </row>
+    <row r="165" spans="2:11" ht="18">
+      <c r="B165" s="38"/>
+      <c r="C165" s="39"/>
+      <c r="D165" s="40"/>
+      <c r="E165" s="41"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="43"/>
+      <c r="J165" s="44"/>
+      <c r="K165" s="41"/>
+    </row>
+    <row r="166" spans="2:11" ht="18.75">
+      <c r="B166" s="38"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="44"/>
+      <c r="K166" s="41"/>
+    </row>
+    <row r="167" spans="2:11" ht="18">
+      <c r="B167" s="38"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="41"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="43"/>
+      <c r="J167" s="44"/>
+      <c r="K167" s="41"/>
+    </row>
+    <row r="168" spans="2:11" ht="18">
+      <c r="B168" s="38"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="41"/>
+    </row>
+    <row r="169" spans="2:11" ht="18.75">
+      <c r="B169" s="38"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="41"/>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="45"/>
+      <c r="I169" s="43"/>
+      <c r="J169" s="44"/>
+      <c r="K169" s="41"/>
+    </row>
+    <row r="170" spans="2:11" ht="18">
+      <c r="B170" s="38"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="43"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="41"/>
+    </row>
+    <row r="171" spans="2:11" ht="18.75">
+      <c r="B171" s="38"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="41"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="45"/>
+      <c r="I171" s="43"/>
+      <c r="J171" s="44"/>
+      <c r="K171" s="41"/>
+    </row>
+    <row r="172" spans="2:11" ht="18">
+      <c r="B172" s="38"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="43"/>
+      <c r="J172" s="44"/>
+      <c r="K172" s="41"/>
+    </row>
+    <row r="173" spans="2:11" ht="18.75">
+      <c r="B173" s="38"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="43"/>
+      <c r="J173" s="44"/>
+      <c r="K173" s="41"/>
+    </row>
+    <row r="174" spans="2:11" ht="18">
+      <c r="B174" s="38"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="41"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="42"/>
+      <c r="I174" s="43"/>
+      <c r="J174" s="44"/>
+      <c r="K174" s="41"/>
+    </row>
+    <row r="175" spans="2:11" ht="18.75">
+      <c r="B175" s="38"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="45"/>
+      <c r="I175" s="43"/>
+      <c r="J175" s="44"/>
+      <c r="K175" s="41"/>
+    </row>
+    <row r="176" spans="2:11" ht="18">
+      <c r="B176" s="38"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="44"/>
+      <c r="K176" s="41"/>
+    </row>
+    <row r="177" spans="2:11" ht="18">
+      <c r="B177" s="38"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="42"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="42"/>
+      <c r="I177" s="43"/>
+      <c r="J177" s="44"/>
+      <c r="K177" s="41"/>
+    </row>
+    <row r="178" spans="2:11" ht="18">
+      <c r="B178" s="38"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="41"/>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="43"/>
+      <c r="J178" s="44"/>
+      <c r="K178" s="41"/>
+    </row>
+    <row r="179" spans="2:11" ht="18">
+      <c r="B179" s="38"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="42"/>
+      <c r="G179" s="42"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="44"/>
+      <c r="K179" s="41"/>
+    </row>
+    <row r="180" spans="2:11" ht="18.75">
+      <c r="B180" s="38"/>
+      <c r="C180" s="39"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="45"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="44"/>
+      <c r="K180" s="41"/>
+    </row>
+    <row r="181" spans="2:11" ht="18.75">
+      <c r="B181" s="38"/>
+      <c r="C181" s="39"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="42"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="43"/>
+      <c r="J181" s="44"/>
+      <c r="K181" s="41"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I181">
       <formula1>"-,Pass,Fail,Pass With Issues,TBD"</formula1>
     </dataValidation>
   </dataValidations>
